--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9B6C2-AAE5-40FE-A932-913384717BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D30D6A-A9CC-4D2F-A357-D25D8FE99D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DE998299-741F-409E-917F-4B7DAD429CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
-    <sheet name="Weekly_Pick_Scores" sheetId="3" r:id="rId2"/>
-    <sheet name="Weekly_Questions" sheetId="5" r:id="rId3"/>
-    <sheet name="Elimination_Table" sheetId="4" r:id="rId4"/>
+    <sheet name="Tribes" sheetId="6" r:id="rId2"/>
+    <sheet name="Weekly_Pick_Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="Weekly_Questions" sheetId="5" r:id="rId4"/>
+    <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AJ$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
   <si>
     <t>Player</t>
   </si>
@@ -249,9 +255,21 @@
     <t>Purple</t>
   </si>
   <si>
+    <t>Lagi</t>
+  </si>
+  <si>
+    <t>Civa</t>
+  </si>
+  <si>
     <t>Orange</t>
   </si>
   <si>
+    <t>Vula</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
     <t>Who will say the ep title "House party is over"?</t>
   </si>
   <si>
@@ -262,17 +280,48 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>After Swap</t>
+  </si>
+  <si>
+    <t>Cerek</t>
+  </si>
+  <si>
+    <t>"Wins" Journey</t>
+  </si>
+  <si>
+    <t>"Loses" Journey</t>
+  </si>
+  <si>
+    <t>Plays shot in the dark succesfully</t>
+  </si>
+  <si>
+    <t>Plays shot in the dark unsuccesfully</t>
+  </si>
+  <si>
+    <t>Plays idol for self at tribal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,8 +335,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +368,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,20 +445,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,14 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ997"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AO997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="AG40" sqref="AG40"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -622,13 +720,17 @@
     <col min="30" max="30" width="20.7109375" customWidth="1"/>
     <col min="31" max="31" width="35.140625" customWidth="1"/>
     <col min="32" max="32" width="34" customWidth="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1"/>
+    <col min="33" max="33" width="25" customWidth="1"/>
     <col min="34" max="34" width="34.85546875" customWidth="1"/>
     <col min="35" max="35" width="37.28515625" customWidth="1"/>
     <col min="36" max="36" width="17.85546875" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,8 +839,23 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -749,312 +866,314 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="AI9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="AI11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AM17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>2</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>11</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>2</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>2</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>2</v>
       </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>2</v>
       </c>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>2</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>2</v>
       </c>
       <c r="L30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>2</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>2</v>
       </c>
       <c r="AG32" s="1"/>
@@ -2271,17 +2390,198 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:AJ32" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B13532-DB03-4D2F-9632-6E166714C127}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2311,15 +2611,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2327,18 +2627,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3368,12 +3659,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3434,41 +3729,41 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>73</v>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>73</v>
+      <c r="C4" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -3486,7 +3781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3512,7 +3807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3543,24 +3838,24 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3571,11 +3866,11 @@
       <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>73</v>
+      <c r="C8" t="s">
+        <v>81</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
@@ -3584,7 +3879,7 @@
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
@@ -3604,16 +3899,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3621,10 +3916,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3655,16 +3950,16 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3673,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>42</v>
@@ -3695,17 +3990,25 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H12" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D30D6A-A9CC-4D2F-A357-D25D8FE99D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4B28D-0FA4-449B-BE68-C5A1A8AF900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DE998299-741F-409E-917F-4B7DAD429CF1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DE998299-741F-409E-917F-4B7DAD429CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -361,12 +361,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +458,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -688,7 +688,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AF18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG40" sqref="AG40"/>
+      <selection pane="bottomRight" activeCell="AK41" sqref="AK41"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -839,10 +839,10 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AM1" t="s">
@@ -1041,7 +1041,7 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
       <c r="AH18" s="1"/>
@@ -1051,17 +1051,19 @@
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>2</v>
       </c>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
       <c r="AH20" s="1"/>
@@ -1074,7 +1076,7 @@
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1082,7 +1084,7 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1090,7 +1092,7 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1098,7 +1100,7 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="AH24" s="1"/>
@@ -1107,16 +1109,19 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="AH25" s="1"/>
+      <c r="AI25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1124,7 +1129,7 @@
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>2</v>
       </c>
       <c r="AI27" s="1"/>
@@ -1133,17 +1138,19 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
+      <c r="AI28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>2</v>
       </c>
       <c r="AG29" s="1"/>
@@ -1153,7 +1160,7 @@
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>2</v>
       </c>
       <c r="L30" s="1"/>
@@ -1163,20 +1170,26 @@
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>2</v>
       </c>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
+      <c r="AI31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>2</v>
       </c>
       <c r="AG32" s="1"/>
+      <c r="AI32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -2407,10 +2420,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,147 +2437,147 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2578,7 +2591,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="S32" sqref="S32"/>
@@ -2616,10 +2629,10 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2627,9 +2640,18 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3665,10 +3687,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,7 +3758,7 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="b">
@@ -3762,7 +3784,7 @@
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D4" t="b">
@@ -3846,16 +3868,16 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3904,7 +3926,7 @@
       <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="13" t="s">
         <v>72</v>
       </c>
       <c r="H9" t="s">
@@ -3944,22 +3966,22 @@
       <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3971,7 +3993,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4B28D-0FA4-449B-BE68-C5A1A8AF900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FE63E9-5989-4D58-B74E-A6FFD22598AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DE998299-741F-409E-917F-4B7DAD429CF1}"/>
@@ -688,7 +688,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AF18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK41" sqref="AK41"/>
+      <selection pane="bottomRight" activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -3687,7 +3687,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="C29" sqref="C29"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FE63E9-5989-4D58-B74E-A6FFD22598AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF0F031-682F-4016-AF44-FB4FC80CF0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DE998299-741F-409E-917F-4B7DAD429CF1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -445,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,7 +457,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -684,13 +682,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AO997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AL18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ27" sqref="AJ27"/>
+      <selection pane="bottomRight" activeCell="AO29" sqref="AO29"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -839,10 +836,10 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="9" t="s">
         <v>86</v>
       </c>
       <c r="AM1" t="s">
@@ -1041,7 +1038,7 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="AH18" s="1"/>
@@ -1051,7 +1048,7 @@
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="AH19" s="1"/>
@@ -1063,7 +1060,7 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="AH20" s="1"/>
@@ -1076,7 +1073,7 @@
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
     </row>
@@ -1084,7 +1081,7 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
@@ -1092,7 +1089,7 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>2</v>
       </c>
     </row>
@@ -1100,7 +1097,7 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>2</v>
       </c>
       <c r="AH24" s="1"/>
@@ -1109,7 +1106,7 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>2</v>
       </c>
       <c r="AH25" s="1"/>
@@ -1121,7 +1118,7 @@
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>2</v>
       </c>
     </row>
@@ -1129,7 +1126,7 @@
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="AI27" s="1"/>
@@ -1138,7 +1135,7 @@
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>2</v>
       </c>
       <c r="AH28" s="1"/>
@@ -1150,7 +1147,7 @@
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>2</v>
       </c>
       <c r="AG29" s="1"/>
@@ -1160,7 +1157,7 @@
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>2</v>
       </c>
       <c r="L30" s="1"/>
@@ -1170,7 +1167,7 @@
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>2</v>
       </c>
       <c r="AG31" s="1"/>
@@ -1183,7 +1180,7 @@
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>2</v>
       </c>
       <c r="AG32" s="1"/>
@@ -2422,9 +2419,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2437,147 +2431,147 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2593,9 +2587,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="S32" sqref="S32"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2629,10 +2620,10 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
@@ -2649,7 +2640,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -3683,14 +3674,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,7 +3712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3751,14 +3738,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="b">
@@ -3777,14 +3764,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D4" t="b">
@@ -3803,7 +3790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3829,7 +3816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3868,16 +3855,16 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3926,7 +3913,7 @@
       <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H9" t="s">
@@ -3972,16 +3959,16 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4012,13 +3999,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H12" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H12" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4030,7 +4011,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF0F031-682F-4016-AF44-FB4FC80CF0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF9534-04A0-4C35-A0B1-265696618A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -679,14 +679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO29" sqref="AO29"/>
+      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -852,7 +851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -863,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -874,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -883,7 +882,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -893,7 +892,7 @@
       <c r="L5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -904,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -915,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -929,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -938,7 +937,7 @@
       </c>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -949,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -958,7 +957,7 @@
       </c>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -969,7 +968,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -986,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1012,7 +1011,7 @@
       </c>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2400,13 +2399,7 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AJ32" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF9534-04A0-4C35-A0B1-265696618A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD7D248-A6AD-49B8-9765-AA2573D3D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
     <t>Plays shot in the dark unsuccesfully</t>
   </si>
   <si>
-    <t>Plays idol for self at tribal</t>
+    <t>Plays idol at tribal</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD7D248-A6AD-49B8-9765-AA2573D3D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3221DF6-6BA7-433A-898D-16F0D2E29BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3221DF6-6BA7-433A-898D-16F0D2E29BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37219F34-1683-41C1-A9C8-4F0EA47B37D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AJ$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AJ$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="y+UqypyAIi4+2xqziDClQ4BPr2IEqJD/nCAXQZ95ZFE="/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
   <si>
     <t>Player</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>Plays idol at tribal</t>
+  </si>
+  <si>
+    <t>Plays advantage (extra vote, steal vote etc.)</t>
+  </si>
+  <si>
+    <t>Will there be a journey?</t>
+  </si>
+  <si>
+    <t>Will Sai go Goblin mode?</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,6 +476,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,13 +692,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO997"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AP996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1"/>
+      <selection pane="bottomRight" activeCell="AF54" sqref="AF54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -724,9 +738,10 @@
     <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,8 +865,11 @@
       <c r="AO1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -862,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -873,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -882,7 +900,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -892,7 +910,7 @@
       <c r="L5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -903,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -914,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -928,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -937,7 +955,7 @@
       </c>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -948,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -957,7 +975,7 @@
       </c>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -968,7 +986,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1011,7 +1029,7 @@
       </c>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1043,7 +1061,7 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1067,8 +1085,11 @@
       <c r="AO20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1076,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1092,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1101,7 +1122,7 @@
       </c>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1113,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1121,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1130,7 +1151,7 @@
       </c>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1152,7 +1173,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1162,7 +1183,7 @@
       <c r="L30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1175,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1187,187 +1208,278 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
       <c r="U33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-    </row>
-    <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="AH34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="9"/>
+    </row>
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
       <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="9"/>
+    </row>
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
       <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-    </row>
-    <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="AH36" s="9"/>
+      <c r="AJ36" s="9"/>
+    </row>
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-    </row>
-    <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="AH37" s="9"/>
+      <c r="AJ37" s="9"/>
+    </row>
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
       <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
       <c r="AG39" s="1"/>
-    </row>
-    <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
       <c r="AG40" s="1"/>
-    </row>
-    <row r="41" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="AH40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="AH42" s="1"/>
-    </row>
-    <row r="43" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="AH43" s="1"/>
-    </row>
-    <row r="44" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="9"/>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="9"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="V45" s="1"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
+      <c r="L47" s="1"/>
       <c r="AH47" s="1"/>
     </row>
-    <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="L48" s="1"/>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="AH49" s="1"/>
-    </row>
-    <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="AC64" s="1"/>
+      <c r="AJ64" s="1"/>
     </row>
     <row r="65" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="AJ65" s="1"/>
+      <c r="AH65" s="1"/>
     </row>
     <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="AH66" s="1"/>
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
+      <c r="AJ67" s="1"/>
     </row>
     <row r="68" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="AJ68" s="1"/>
+      <c r="AH68" s="1"/>
     </row>
     <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="AH69" s="1"/>
+      <c r="AJ69" s="1"/>
     </row>
     <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="AJ70" s="1"/>
+      <c r="AH70" s="1"/>
     </row>
     <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -1377,22 +1489,21 @@
     <row r="72" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="AH72" s="1"/>
     </row>
     <row r="73" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="AH73" s="1"/>
     </row>
     <row r="74" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="Y74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
     <row r="75" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="AH75" s="1"/>
     </row>
     <row r="76" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
@@ -1405,12 +1516,12 @@
     <row r="78" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="AH78" s="1"/>
     </row>
     <row r="79" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="AH79" s="1"/>
     </row>
     <row r="80" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -1419,16 +1530,16 @@
     <row r="81" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
+      <c r="AH81" s="1"/>
     </row>
     <row r="82" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="AH82" s="1"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -1445,11 +1556,11 @@
     <row r="87" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
+      <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
@@ -1458,17 +1569,17 @@
     <row r="90" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="AJ90" s="1"/>
     </row>
     <row r="91" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="AJ91" s="1"/>
+      <c r="AH91" s="1"/>
     </row>
     <row r="92" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="AH92" s="1"/>
     </row>
     <row r="93" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
@@ -1477,11 +1588,11 @@
     <row r="94" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -1494,12 +1605,9 @@
     <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="Y99" s="1"/>
-    </row>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2397,9 +2505,14 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AJ32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AJ46" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2410,7 +2523,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,9 +2589,7 @@
       <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2578,7 +2689,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2638,10 +2749,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3667,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3989,6 +4111,188 @@
       </c>
       <c r="H12" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4002,7 +4306,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4053,8 +4357,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37219F34-1683-41C1-A9C8-4F0EA47B37D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11EBF7-CE7F-4B29-9085-0E5B80290403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AJ$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="y+UqypyAIi4+2xqziDClQ4BPr2IEqJD/nCAXQZ95ZFE="/>
@@ -140,9 +140,6 @@
     <t>On winning immunity challenge team</t>
   </si>
   <si>
-    <t>Goes on journey</t>
-  </si>
-  <si>
     <t>Kyle</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Goes on Journey</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +476,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,11 +694,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AP996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF33" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF54" sqref="AF54"/>
+      <selection pane="bottomRight" activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -848,30 +847,30 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="AK1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>88</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>89</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -882,7 +881,7 @@
     </row>
     <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -891,9 +890,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -902,7 +901,7 @@
     </row>
     <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -912,7 +911,7 @@
     </row>
     <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -923,18 +922,18 @@
     </row>
     <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -948,7 +947,7 @@
     </row>
     <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -957,7 +956,7 @@
     </row>
     <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -968,7 +967,7 @@
     </row>
     <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -977,7 +976,7 @@
     </row>
     <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -988,7 +987,7 @@
     </row>
     <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1005,7 +1004,7 @@
     </row>
     <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1022,7 +1021,7 @@
     </row>
     <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1031,7 +1030,7 @@
     </row>
     <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1042,7 +1041,7 @@
     </row>
     <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1053,7 +1052,7 @@
     </row>
     <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1063,7 +1062,7 @@
     </row>
     <row r="19" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1073,9 +1072,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1091,7 +1090,7 @@
     </row>
     <row r="21" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1099,7 +1098,7 @@
     </row>
     <row r="22" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1107,15 +1106,15 @@
     </row>
     <row r="23" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1124,7 +1123,7 @@
     </row>
     <row r="25" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1136,7 +1135,7 @@
     </row>
     <row r="26" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1144,7 +1143,7 @@
     </row>
     <row r="27" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1153,7 +1152,7 @@
     </row>
     <row r="28" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1165,7 +1164,7 @@
     </row>
     <row r="29" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1175,7 +1174,7 @@
     </row>
     <row r="30" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1185,7 +1184,7 @@
     </row>
     <row r="31" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1198,7 +1197,7 @@
     </row>
     <row r="32" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1208,9 +1207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1222,9 +1221,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1236,7 +1235,7 @@
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1248,9 +1247,9 @@
       </c>
       <c r="AJ35" s="9"/>
     </row>
-    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1259,9 +1258,9 @@
       <c r="AH36" s="9"/>
       <c r="AJ36" s="9"/>
     </row>
-    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1270,9 +1269,9 @@
       <c r="AH37" s="9"/>
       <c r="AJ37" s="9"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1284,7 +1283,7 @@
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1294,9 +1293,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1306,18 +1305,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1327,27 +1326,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="AG43" s="9"/>
     </row>
-    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="AG44" s="9"/>
     </row>
-    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1358,9 +1357,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2507,9 +2506,10 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AJ46" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="3"/>
+        <filter val="Kamilla"/>
+        <filter val="Kyle"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2530,153 +2530,153 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2689,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -3806,25 +3806,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3832,25 +3832,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3858,25 +3858,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3884,25 +3884,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3910,25 +3910,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3936,25 +3936,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3962,25 +3962,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3988,25 +3988,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4014,25 +4014,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,25 +4040,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,25 +4066,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4092,25 +4092,25 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
         <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4118,25 +4118,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,25 +4144,25 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4170,25 +4170,25 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4196,25 +4196,25 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,25 +4222,25 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,25 +4248,25 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4274,25 +4274,25 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4326,42 +4326,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>57</v>
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11EBF7-CE7F-4B29-9085-0E5B80290403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04790E77-9EE0-433B-883A-E0D206AEB8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -695,10 +695,10 @@
   <dimension ref="A1:AP996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK20" sqref="AK20"/>
+      <selection pane="bottomRight" activeCell="AI56" sqref="AI56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="AJ34" s="9"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2508,8 +2508,7 @@
   <autoFilter ref="A1:AJ46" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Kamilla"/>
-        <filter val="Kyle"/>
+        <filter val="Bianca"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2523,7 +2522,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3791,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,7 +4305,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04790E77-9EE0-433B-883A-E0D206AEB8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E155FF48-A164-4A0A-83D0-9174786E7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AJ$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AJ$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
   <si>
     <t>Player</t>
   </si>
@@ -315,6 +315,42 @@
   </si>
   <si>
     <t>Goes on Journey</t>
+  </si>
+  <si>
+    <t>Who will win individual immunity?</t>
+  </si>
+  <si>
+    <t>Mergatory</t>
+  </si>
+  <si>
+    <t>Merge type</t>
+  </si>
+  <si>
+    <t>Who will be odd one out a merge rocks?</t>
+  </si>
+  <si>
+    <t>Will there be more than one tribal?</t>
+  </si>
+  <si>
+    <t>Who will find/gain/earn advantage?</t>
+  </si>
+  <si>
+    <t>Who will say the title "Doing the damn thing"?</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Text Effects</t>
+  </si>
+  <si>
+    <t>Complaining</t>
+  </si>
+  <si>
+    <t>Autism Awareness Warrior</t>
+  </si>
+  <si>
+    <t>Wins Mergatory Individual Immunity Challenge</t>
   </si>
 </sst>
 </file>
@@ -363,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,18 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,8 +498,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,13 +714,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AP996"/>
+  <dimension ref="A1:AT995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AC47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI56" sqref="AI56"/>
+      <selection pane="bottomRight" activeCell="AF70" sqref="AF70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -738,9 +760,11 @@
     <col min="40" max="40" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,8 +891,20 @@
       <c r="AP1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AQ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -879,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -890,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -899,7 +935,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -909,7 +945,7 @@
       <c r="L5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -920,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -931,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -945,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -954,7 +990,7 @@
       </c>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -965,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -974,7 +1010,7 @@
       </c>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -985,7 +1021,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1002,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1019,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1028,7 +1064,7 @@
       </c>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1162,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1233,7 +1269,7 @@
       </c>
       <c r="AJ34" s="9"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1247,7 +1283,7 @@
       </c>
       <c r="AJ35" s="9"/>
     </row>
-    <row r="36" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1258,7 +1294,7 @@
       <c r="AH36" s="9"/>
       <c r="AJ36" s="9"/>
     </row>
-    <row r="37" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1269,7 +1305,7 @@
       <c r="AH37" s="9"/>
       <c r="AJ37" s="9"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1281,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1305,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1314,7 +1350,7 @@
       </c>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1326,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1335,7 +1371,7 @@
       </c>
       <c r="AG43" s="9"/>
     </row>
-    <row r="44" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1344,7 +1380,7 @@
       </c>
       <c r="AG44" s="9"/>
     </row>
-    <row r="45" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1357,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1369,111 +1405,239 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
       <c r="L47" s="1"/>
+      <c r="AG47">
+        <v>1</v>
+      </c>
       <c r="AH47" s="1"/>
-    </row>
-    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
       <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AS52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
       <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
       <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC62" s="1"/>
+    </row>
+    <row r="63" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="1"/>
+    </row>
+    <row r="64" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="AJ64" s="1"/>
+      <c r="AH64" s="1"/>
     </row>
     <row r="65" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="AH65" s="1"/>
     </row>
     <row r="66" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
+      <c r="AJ66" s="1"/>
     </row>
     <row r="67" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="AJ67" s="1"/>
+      <c r="AH67" s="1"/>
     </row>
     <row r="68" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="AH68" s="1"/>
+      <c r="AJ68" s="1"/>
     </row>
     <row r="69" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="AJ69" s="1"/>
+      <c r="AH69" s="1"/>
     </row>
     <row r="70" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -1483,22 +1647,21 @@
     <row r="71" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="AH71" s="1"/>
     </row>
     <row r="72" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="AH72" s="1"/>
     </row>
     <row r="73" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="Y73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
     <row r="74" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="AH74" s="1"/>
     </row>
     <row r="75" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
@@ -1511,12 +1674,12 @@
     <row r="77" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="AH78" s="1"/>
     </row>
     <row r="79" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -1525,16 +1688,16 @@
     <row r="80" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
+      <c r="AH80" s="1"/>
     </row>
     <row r="81" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="AH81" s="1"/>
+      <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -1551,11 +1714,11 @@
     <row r="86" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -1564,17 +1727,17 @@
     <row r="89" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="AJ89" s="1"/>
     </row>
     <row r="90" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="AJ90" s="1"/>
+      <c r="AH90" s="1"/>
     </row>
     <row r="91" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="AH91" s="1"/>
     </row>
     <row r="92" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -1583,11 +1746,11 @@
     <row r="93" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
@@ -1600,12 +1763,9 @@
     <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="Y98" s="1"/>
-    </row>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2503,12 +2663,11 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AJ46" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:AJ59" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Bianca"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2522,7 +2681,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2765,10 +2924,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -3788,16 +3958,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <dimension ref="A1:H19"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3826,7 +4002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3852,7 +4028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3878,7 +4054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3904,7 +4080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3930,7 +4106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3956,7 +4132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3969,20 +4145,20 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4008,7 +4184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4027,14 +4203,14 @@
       <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" t="s">
         <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4060,7 +4236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4073,20 +4249,20 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4112,7 +4288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4125,20 +4301,20 @@
       <c r="D13" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4151,20 +4327,20 @@
       <c r="D14" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4177,20 +4353,20 @@
       <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4203,20 +4379,20 @@
       <c r="D16" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4229,20 +4405,20 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4255,20 +4431,20 @@
       <c r="D18" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4281,21 +4457,235 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H12" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}"/>
+  <autoFilter ref="A1:H27" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4305,7 +4695,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4364,8 +4754,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7981C9-6F87-4E6A-BB22-8ED10ABAD069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0F386-F668-4545-9A04-62BC4A66AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tribes" sheetId="6" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="130">
   <si>
     <t>Player</t>
   </si>
@@ -416,13 +416,31 @@
   </si>
   <si>
     <t>Picked for reward</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Will anything be played at tribal?</t>
+  </si>
+  <si>
+    <t>Votes jor Joe?</t>
+  </si>
+  <si>
+    <t>Votes for Eva?</t>
+  </si>
+  <si>
+    <t>Who will say the ep title "My enemies are plotting"?</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,12 +458,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -545,26 +572,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +815,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,13 +979,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AV991"/>
+  <dimension ref="A1:AV990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH82" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ88" sqref="AJ88"/>
+      <selection pane="bottomRight" activeCell="V104" sqref="V104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1063,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" t="s">
         <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2150,64 +2182,132 @@
     </row>
     <row r="88" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B88">
         <v>7</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
-      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="Z92" s="1"/>
+      <c r="AV92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="AI93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="Z95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>59</v>
       </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="Z93" s="1"/>
-    </row>
-    <row r="94" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3086,12 +3186,12 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AK90" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:AK98" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="7"/>
+        <filter val="8"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3104,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3250,10 +3350,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4244,15 +4355,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="E59" sqref="E59:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5353,7 +5464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -5379,7 +5490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -5405,7 +5516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
@@ -5431,7 +5542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -5457,7 +5568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -5483,7 +5594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -5509,7 +5620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -5535,7 +5646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5561,11 +5672,222 @@
         <v>41</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H50" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
+  <autoFilter ref="A1:H58" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="7"/>
+        <filter val="8"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5578,7 +5900,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5669,12 +5991,20 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0F386-F668-4545-9A04-62BC4A66AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51EAAB2-7FF9-4970-8079-C882E291B930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tribes" sheetId="6" r:id="rId1"/>
@@ -20,8 +21,8 @@
     <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="142">
   <si>
     <t>Player</t>
   </si>
@@ -434,17 +435,60 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Who will say the ep title "Coconut Etiquette"?</t>
+  </si>
+  <si>
+    <t>Will anyone play anything at tribal?</t>
+  </si>
+  <si>
+    <t>Reward challenge?</t>
+  </si>
+  <si>
+    <t>Will anyone from strong boys be eliminated?</t>
+  </si>
+  <si>
+    <t>Who will say the ep title "Icarus Time"?</t>
+  </si>
+  <si>
+    <t>One person chosen to join reward</t>
+  </si>
+  <si>
+    <t>Anyone discuss actually voting for Eva?</t>
+  </si>
+  <si>
+    <t>Will Mitch or Kamilla be murked?</t>
+  </si>
+  <si>
+    <t>Will Kamilla and Kyle vote together?</t>
+  </si>
+  <si>
+    <t>Will Kamilla and Kyle break up?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,31 +616,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,8 +858,9 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -978,14 +1022,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AV990"/>
+  <dimension ref="A1:AV988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AN89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V104" sqref="V104"/>
+      <selection pane="bottomRight" activeCell="AR110" sqref="AR110"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM108" sqref="AM108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1074,7 @@
     <col min="43" max="43" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="26" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -1175,7 +1223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1186,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1197,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1206,7 +1254,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1216,7 +1264,7 @@
       <c r="M5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1227,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1238,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1252,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1261,7 +1309,7 @@
       </c>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1272,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1281,7 +1329,7 @@
       </c>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1292,7 +1340,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1309,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1335,7 +1383,7 @@
       </c>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1346,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1357,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1415,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1379,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1395,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1411,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1428,7 +1476,7 @@
       </c>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1440,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1448,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1457,7 +1505,7 @@
       </c>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1469,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1479,7 +1527,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1537,7 @@
       <c r="M30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1502,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1514,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1528,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1540,7 +1588,7 @@
       </c>
       <c r="AK34" s="9"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1602,7 @@
       </c>
       <c r="AK35" s="9"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1565,7 +1613,7 @@
       <c r="AI36" s="9"/>
       <c r="AK36" s="9"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1576,7 +1624,7 @@
       <c r="AI37" s="9"/>
       <c r="AK37" s="9"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1588,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1600,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1612,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1621,7 +1669,7 @@
       </c>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1633,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1642,7 +1690,7 @@
       </c>
       <c r="AH43" s="9"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1651,7 +1699,7 @@
       </c>
       <c r="AH44" s="9"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1664,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1676,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1695,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +1755,7 @@
       </c>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1725,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1736,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1750,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1765,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1782,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1797,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1808,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1820,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1834,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1848,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1863,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -1874,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -1882,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -1894,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -1906,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -1915,7 +1963,7 @@
       </c>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -1929,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -1938,7 +1986,7 @@
       </c>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -1952,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -1964,7 +2012,7 @@
       </c>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -1973,7 +2021,7 @@
       </c>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -1981,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -1993,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2005,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2019,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -2030,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -2041,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -2052,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -2088,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -2102,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -2272,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -2283,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -2291,23 +2339,141 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AV100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="AV102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="AI106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="AV108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="Z110">
+        <v>1</v>
+      </c>
+      <c r="AV110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3184,17 +3350,8 @@
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AK98" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="7"/>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AK111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3204,9 +3361,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3359,11 +3517,45 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4355,11 +4547,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:H59"/>
+      <selection activeCell="O75" sqref="O75:O76"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5620,7 +5813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -5646,7 +5839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5672,7 +5865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -5685,20 +5878,20 @@
       <c r="D51" t="b">
         <v>0</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -5711,20 +5904,20 @@
       <c r="D52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="E52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5737,20 +5930,20 @@
       <c r="D53" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -5763,20 +5956,20 @@
       <c r="D54" t="b">
         <v>0</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="17" t="s">
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -5789,20 +5982,20 @@
       <c r="D55" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -5815,20 +6008,20 @@
       <c r="D56" t="b">
         <v>0</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="13" t="s">
+      <c r="E56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -5841,20 +6034,20 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -5867,27 +6060,432 @@
       <c r="D58" t="b">
         <v>0</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G60" s="14"/>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H58" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
+  <autoFilter ref="A1:H73" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
     <filterColumn colId="0">
       <filters>
-        <filter val="8"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5899,9 +6497,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6007,11 +6606,20 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51EAAB2-7FF9-4970-8079-C882E291B930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BFF99-F993-4873-9F17-E29A04FDB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
@@ -567,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -588,44 +588,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -873,145 +843,145 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1189,10 +1159,10 @@
       <c r="AK1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="7" t="s">
         <v>85</v>
       </c>
       <c r="AN1" t="s">
@@ -1571,7 +1541,7 @@
       </c>
       <c r="V33" s="1"/>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="9"/>
+      <c r="AI33" s="7"/>
       <c r="AJ33">
         <v>1</v>
       </c>
@@ -1583,10 +1553,10 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="AI34" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="9"/>
+      <c r="AI34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="7"/>
     </row>
     <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1596,11 +1566,11 @@
         <v>3</v>
       </c>
       <c r="AH35" s="1"/>
-      <c r="AI35" s="9"/>
+      <c r="AI35" s="7"/>
       <c r="AJ35">
         <v>1</v>
       </c>
-      <c r="AK35" s="9"/>
+      <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1610,8 +1580,8 @@
         <v>3</v>
       </c>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="9"/>
-      <c r="AK36" s="9"/>
+      <c r="AI36" s="7"/>
+      <c r="AK36" s="7"/>
     </row>
     <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1621,8 +1591,8 @@
         <v>3</v>
       </c>
       <c r="AH37" s="1"/>
-      <c r="AI37" s="9"/>
-      <c r="AK37" s="9"/>
+      <c r="AI37" s="7"/>
+      <c r="AK37" s="7"/>
     </row>
     <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1676,7 +1646,7 @@
       <c r="B42">
         <v>3</v>
       </c>
-      <c r="AH42" s="9"/>
+      <c r="AH42" s="7"/>
       <c r="AI42" s="1">
         <v>1</v>
       </c>
@@ -1688,7 +1658,7 @@
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="AH43" s="9"/>
+      <c r="AH43" s="7"/>
     </row>
     <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1697,7 +1667,7 @@
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="AH44" s="9"/>
+      <c r="AH44" s="7"/>
     </row>
     <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1707,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="W45" s="1"/>
-      <c r="AH45" s="9"/>
+      <c r="AH45" s="7"/>
       <c r="AI45">
         <v>1</v>
       </c>
@@ -1719,7 +1689,7 @@
       <c r="B46">
         <v>3</v>
       </c>
-      <c r="AH46" s="9"/>
+      <c r="AH46" s="7"/>
       <c r="AI46" s="1">
         <v>1</v>
       </c>
@@ -2246,7 +2216,7 @@
       </c>
     </row>
     <row r="90" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B90" s="1">
@@ -3361,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -3372,7 +3342,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3381,10 +3351,10 @@
       <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3508,7 +3478,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3525,7 +3495,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3542,7 +3512,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4546,11 +4516,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O75" sqref="O75:O76"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -4591,7 +4560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4617,14 +4586,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="b">
@@ -4643,14 +4612,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="b">
@@ -4669,7 +4638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4695,7 +4664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4721,7 +4690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4747,7 +4716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4773,14 +4742,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D9" t="b">
@@ -4799,14 +4768,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="b">
@@ -4825,14 +4794,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="b">
@@ -4851,14 +4820,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D12" t="b">
@@ -4877,14 +4846,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="b">
@@ -4903,14 +4872,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D14" t="b">
@@ -4929,14 +4898,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D15" t="b">
@@ -4955,7 +4924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4981,7 +4950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5007,7 +4976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5033,7 +5002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5059,7 +5028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5085,7 +5054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5111,7 +5080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5137,7 +5106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5163,7 +5132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5189,7 +5158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5215,7 +5184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5241,7 +5210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5267,7 +5236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5293,7 +5262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -5306,10 +5275,10 @@
       <c r="D29" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G29" t="s">
@@ -5319,7 +5288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5332,20 +5301,20 @@
       <c r="D30" t="b">
         <v>0</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -5358,20 +5327,20 @@
       <c r="D31" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5397,7 +5366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -5423,7 +5392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -5436,20 +5405,20 @@
       <c r="D34" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -5465,7 +5434,7 @@
       <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G35" t="s">
@@ -5475,7 +5444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -5494,14 +5463,14 @@
       <c r="F36" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5527,7 +5496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -5553,7 +5522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -5579,7 +5548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5605,7 +5574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -5631,7 +5600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -5644,7 +5613,7 @@
       <c r="D42" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F42" t="s">
@@ -5653,11 +5622,11 @@
       <c r="G42" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -5670,10 +5639,10 @@
       <c r="D43" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G43" t="s">
@@ -5683,7 +5652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -5709,7 +5678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
@@ -5722,20 +5691,20 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -5748,20 +5717,20 @@
       <c r="D46" t="b">
         <v>0</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -5774,20 +5743,20 @@
       <c r="D47" t="b">
         <v>0</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -5806,14 +5775,14 @@
       <c r="F48" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -5829,17 +5798,17 @@
       <c r="E49" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5852,27 +5821,27 @@
       <c r="D50" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D51" t="b">
@@ -5884,73 +5853,73 @@
       <c r="F51" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="12" t="s">
+      <c r="E52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="b">
@@ -5959,317 +5928,299 @@
       <c r="E54" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G54" t="s">
         <v>41</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="E56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G58" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K59">
-        <v>9</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
-      <c r="O59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="E61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="11" t="s">
+      <c r="E62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="11" t="s">
+      <c r="E63" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="11" t="s">
+      <c r="F64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6277,7 +6228,7 @@
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C66" t="s">
@@ -6286,16 +6237,16 @@
       <c r="D66" t="b">
         <v>0</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6306,22 +6257,22 @@
       <c r="B67" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H67" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6338,16 +6289,16 @@
       <c r="D68" t="b">
         <v>0</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6364,16 +6315,16 @@
       <c r="D69" t="b">
         <v>0</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6390,16 +6341,16 @@
       <c r="D70" t="b">
         <v>0</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="5" t="s">
+      <c r="G70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6416,16 +6367,16 @@
       <c r="D71" t="b">
         <v>0</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="11" t="s">
+      <c r="E71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="5" t="s">
+      <c r="G71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6442,16 +6393,16 @@
       <c r="D72" t="b">
         <v>0</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="F72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6468,27 +6419,21 @@
       <c r="D73" t="b">
         <v>0</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H73" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H73" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6497,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -6598,26 +6543,26 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>47</v>
       </c>
     </row>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BFF99-F993-4873-9F17-E29A04FDB2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33A396-9833-4BE5-BCFD-FB9121A86A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tribes" sheetId="6" r:id="rId1"/>
@@ -21,8 +20,8 @@
     <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$111</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weekly_Questions!$A$1:$H$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="155">
   <si>
     <t>Player</t>
   </si>
@@ -471,17 +470,63 @@
   </si>
   <si>
     <t>Will Kamilla and Kyle break up?</t>
+  </si>
+  <si>
+    <t>Runner Up</t>
+  </si>
+  <si>
+    <t>Finale</t>
+  </si>
+  <si>
+    <t>Who will say ep title "Only one of yous can win"?</t>
+  </si>
+  <si>
+    <t>Voted out at final five tribal</t>
+  </si>
+  <si>
+    <t>WHO WINS???</t>
+  </si>
+  <si>
+    <t>Zero vote finalist?</t>
+  </si>
+  <si>
+    <t>Win final five immunity</t>
+  </si>
+  <si>
+    <t>Win final four immunity</t>
+  </si>
+  <si>
+    <t>Who is brought along to final tribal?</t>
+  </si>
+  <si>
+    <t>Who wins fire?</t>
+  </si>
+  <si>
+    <t>Who loses fire?</t>
+  </si>
+  <si>
+    <t>Any twists or advantages?</t>
+  </si>
+  <si>
+    <t>Fire making between one of the duos?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,24 +637,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,10 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B13532-DB03-4D2F-9632-6E166714C127}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -992,17 +1035,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV988"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AV987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR110" sqref="AR110"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM108" sqref="AM108"/>
+      <selection pane="bottomRight" activeCell="AP113" sqref="AP113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1204,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1224,7 +1264,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1234,7 +1274,7 @@
       <c r="M5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1245,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1256,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1270,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1279,7 +1319,7 @@
       </c>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1290,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1299,7 +1339,7 @@
       </c>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1310,7 +1350,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1327,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1344,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1353,7 +1393,7 @@
       </c>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1364,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1375,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1385,7 +1425,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1421,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1429,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1446,7 +1486,7 @@
       </c>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1458,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1466,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1475,7 +1515,7 @@
       </c>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1487,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1497,7 +1537,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1507,7 +1547,7 @@
       <c r="M30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1532,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1546,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1558,7 +1598,7 @@
       </c>
       <c r="AK34" s="7"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1572,7 +1612,7 @@
       </c>
       <c r="AK35" s="7"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1583,7 +1623,7 @@
       <c r="AI36" s="7"/>
       <c r="AK36" s="7"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1594,7 +1634,7 @@
       <c r="AI37" s="7"/>
       <c r="AK37" s="7"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1606,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1618,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1630,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1679,7 @@
       </c>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1651,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1660,7 +1700,7 @@
       </c>
       <c r="AH43" s="7"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1709,7 @@
       </c>
       <c r="AH44" s="7"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1694,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1725,7 +1765,7 @@
       </c>
       <c r="AI48" s="1"/>
     </row>
-    <row r="49" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1754,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1800,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1815,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1826,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1838,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1852,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1866,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1881,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -1892,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -1900,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -1933,7 +1973,7 @@
       </c>
       <c r="AI64" s="1"/>
     </row>
-    <row r="65" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -1947,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +1996,7 @@
       </c>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -1970,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -1982,7 +2022,7 @@
       </c>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -1991,7 +2031,7 @@
       </c>
       <c r="AI69" s="1"/>
     </row>
-    <row r="70" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -1999,7 +2039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -2011,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2023,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2037,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -2048,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -2059,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -2070,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -2081,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2092,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -2106,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>58</v>
       </c>
@@ -2120,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -2131,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -2142,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>48</v>
       </c>
@@ -2157,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -2165,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -2176,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -2189,7 +2229,7 @@
       <c r="Z86" s="1"/>
       <c r="AK86" s="1"/>
     </row>
-    <row r="87" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -2198,7 +2238,7 @@
       </c>
       <c r="AI87" s="1"/>
     </row>
-    <row r="88" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -2207,7 +2247,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -2215,7 +2255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>53</v>
       </c>
@@ -2226,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -2237,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -2249,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -2268,7 +2308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2279,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -2290,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -2301,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -2309,7 +2349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -2317,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2339,7 +2379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -2358,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -2380,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -2394,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -2402,18 +2442,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>35</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
       <c r="AV108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -2421,13 +2464,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>51</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
       <c r="Z110">
         <v>1</v>
       </c>
@@ -2435,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -2443,23 +2489,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+      <c r="AV112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AF116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3319,9 +3430,14 @@
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AK111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AK116" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3329,16 +3445,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E999"/>
+  <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="22" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3528,6 +3643,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4499,15 +4638,6 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4516,12 +4646,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <dimension ref="A1:H73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4560,7 +4690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4586,7 +4716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4612,7 +4742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4638,7 +4768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4664,7 +4794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4690,7 +4820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4716,7 +4846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4742,7 +4872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4768,7 +4898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4794,7 +4924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4820,7 +4950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4846,7 +4976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4872,7 +5002,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4898,7 +5028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4924,7 +5054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4950,7 +5080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4976,7 +5106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5002,7 +5132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5028,7 +5158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5054,7 +5184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5080,7 +5210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5106,7 +5236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5132,7 +5262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5158,7 +5288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5184,7 +5314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5210,7 +5340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5236,7 +5366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5262,7 +5392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -5288,7 +5418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5314,7 +5444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -5340,7 +5470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5366,7 +5496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -5392,7 +5522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -5418,7 +5548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -5444,7 +5574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -5470,7 +5600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5496,7 +5626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -5522,7 +5652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -5548,7 +5678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5574,7 +5704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -5600,7 +5730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -5626,7 +5756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -5652,7 +5782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -5678,7 +5808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
@@ -5704,7 +5834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -5730,7 +5860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -5756,7 +5886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
@@ -5782,7 +5912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -5808,7 +5938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5834,7 +5964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -5860,7 +5990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -5886,7 +6016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5912,7 +6042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -5938,7 +6068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -5964,7 +6094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -5990,7 +6120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -6016,7 +6146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -6042,7 +6172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
@@ -6068,7 +6198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -6094,7 +6224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -6120,7 +6250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -6146,7 +6276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
@@ -6172,7 +6302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -6198,7 +6328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -6224,7 +6354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
@@ -6250,7 +6380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
@@ -6276,7 +6406,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -6302,7 +6432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
@@ -6328,7 +6458,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10</v>
       </c>
@@ -6354,7 +6484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -6380,7 +6510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
@@ -6406,7 +6536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -6432,8 +6562,313 @@
         <v>49</v>
       </c>
     </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s">
+        <v>51</v>
+      </c>
+      <c r="H77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H73" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}"/>
+  <autoFilter ref="A1:H76" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6443,9 +6878,8 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6567,20 +7001,49 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33A396-9833-4BE5-BCFD-FB9121A86A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D09C8-1330-43A8-A2A7-98EF5159B31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
@@ -1039,10 +1039,10 @@
   <dimension ref="A1:AV987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP113" sqref="AP113"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>48</v>
       </c>
@@ -2442,21 +2442,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>35</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
       <c r="AV108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -2464,16 +2461,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>51</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
       <c r="Z110">
         <v>1</v>
       </c>
@@ -2481,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -2519,6 +2513,9 @@
       <c r="B113">
         <v>11</v>
       </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
       <c r="Y113">
         <v>1</v>
       </c>
@@ -2540,6 +2537,9 @@
       </c>
       <c r="B115">
         <v>11</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,6 +3434,7 @@
   <autoFilter ref="A1:AK116" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
+        <filter val="10"/>
         <filter val="11"/>
       </filters>
     </filterColumn>

--- a/data/PointsScored_Survivor_48.xlsx
+++ b/data/PointsScored_Survivor_48.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D09C8-1330-43A8-A2A7-98EF5159B31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517C35A-C9AE-4F3D-8FA3-5FEDBF0108D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tribes" sheetId="6" r:id="rId1"/>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId2"/>
     <sheet name="Weekly_Pick_Scores" sheetId="3" r:id="rId3"/>
     <sheet name="Weekly_Questions" sheetId="5" r:id="rId4"/>
-    <sheet name="Elimination_Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PointsScored_Survivor!$A$1:$AK$116</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="139">
   <si>
     <t>Player</t>
   </si>
@@ -175,12 +174,6 @@
     <t>Kanna</t>
   </si>
   <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Justin</t>
   </si>
   <si>
@@ -226,18 +219,6 @@
     <t>Mary</t>
   </si>
   <si>
-    <t>PreSeason Week 1</t>
-  </si>
-  <si>
-    <t>PreSeason Week 2</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
     <t>Who will say the ep title "Committing to the Bit"?</t>
   </si>
   <si>
@@ -322,9 +303,6 @@
     <t>Will Sai go Goblin mode?</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Goes on Journey</t>
   </si>
   <si>
@@ -349,9 +327,6 @@
     <t>Who will say the title "Doing the damn thing"?</t>
   </si>
   <si>
-    <t>Week 4</t>
-  </si>
-  <si>
     <t>Text Effects</t>
   </si>
   <si>
@@ -364,12 +339,6 @@
     <t>Wins Mergatory Individual Immunity Challenge</t>
   </si>
   <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 6 </t>
-  </si>
-  <si>
     <t>Who will say the ep title "Survivor Smack Talk"?</t>
   </si>
   <si>
@@ -418,9 +387,6 @@
     <t>Picked for reward</t>
   </si>
   <si>
-    <t>Week 7</t>
-  </si>
-  <si>
     <t>Will anything be played at tribal?</t>
   </si>
   <si>
@@ -433,15 +399,6 @@
     <t>Who will say the ep title "My enemies are plotting"?</t>
   </si>
   <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
     <t>Who will say the ep title "Coconut Etiquette"?</t>
   </si>
   <si>
@@ -470,12 +427,6 @@
   </si>
   <si>
     <t>Will Kamilla and Kyle break up?</t>
-  </si>
-  <si>
-    <t>Runner Up</t>
-  </si>
-  <si>
-    <t>Finale</t>
   </si>
   <si>
     <t>Who will say ep title "Only one of yous can win"?</t>
@@ -879,99 +830,99 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
@@ -979,53 +930,53 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1038,11 +989,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AV987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1197,45 +1148,45 @@
         <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AN1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AO1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AP1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AQ1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AR1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AS1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AT1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AU1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AV1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1246,7 +1197,7 @@
     </row>
     <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1266,7 +1217,7 @@
     </row>
     <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1276,7 +1227,7 @@
     </row>
     <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1287,7 +1238,7 @@
     </row>
     <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1298,7 +1249,7 @@
     </row>
     <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1312,7 +1263,7 @@
     </row>
     <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1321,7 +1272,7 @@
     </row>
     <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1332,7 +1283,7 @@
     </row>
     <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1341,7 +1292,7 @@
     </row>
     <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1352,7 +1303,7 @@
     </row>
     <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1369,7 +1320,7 @@
     </row>
     <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1386,7 +1337,7 @@
     </row>
     <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1395,7 +1346,7 @@
     </row>
     <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1406,7 +1357,7 @@
     </row>
     <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1417,7 +1368,7 @@
     </row>
     <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1427,7 +1378,7 @@
     </row>
     <row r="19" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1455,7 +1406,7 @@
     </row>
     <row r="21" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1463,7 +1414,7 @@
     </row>
     <row r="22" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1471,7 +1422,7 @@
     </row>
     <row r="23" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1479,7 +1430,7 @@
     </row>
     <row r="24" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1488,7 +1439,7 @@
     </row>
     <row r="25" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1500,7 +1451,7 @@
     </row>
     <row r="26" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1508,7 +1459,7 @@
     </row>
     <row r="27" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1517,7 +1468,7 @@
     </row>
     <row r="28" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1529,7 +1480,7 @@
     </row>
     <row r="29" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1539,7 +1490,7 @@
     </row>
     <row r="30" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1549,7 +1500,7 @@
     </row>
     <row r="31" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1562,7 +1513,7 @@
     </row>
     <row r="32" spans="1:43" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1574,7 +1525,7 @@
     </row>
     <row r="33" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1588,7 +1539,7 @@
     </row>
     <row r="34" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1614,7 +1565,7 @@
     </row>
     <row r="36" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1625,7 +1576,7 @@
     </row>
     <row r="37" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1636,7 +1587,7 @@
     </row>
     <row r="38" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -1648,7 +1599,7 @@
     </row>
     <row r="39" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1660,7 +1611,7 @@
     </row>
     <row r="40" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1672,7 +1623,7 @@
     </row>
     <row r="41" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1681,7 +1632,7 @@
     </row>
     <row r="42" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1693,7 +1644,7 @@
     </row>
     <row r="43" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1702,7 +1653,7 @@
     </row>
     <row r="44" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1711,7 +1662,7 @@
     </row>
     <row r="45" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1724,7 +1675,7 @@
     </row>
     <row r="46" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1736,7 +1687,7 @@
     </row>
     <row r="47" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1755,7 +1706,7 @@
     </row>
     <row r="48" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -1785,7 +1736,7 @@
     </row>
     <row r="50" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -1796,7 +1747,7 @@
     </row>
     <row r="51" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -1810,7 +1761,7 @@
     </row>
     <row r="52" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1825,7 +1776,7 @@
     </row>
     <row r="53" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -1842,7 +1793,7 @@
     </row>
     <row r="54" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -1857,7 +1808,7 @@
     </row>
     <row r="55" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1868,7 +1819,7 @@
     </row>
     <row r="56" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -1880,7 +1831,7 @@
     </row>
     <row r="57" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -1894,7 +1845,7 @@
     </row>
     <row r="58" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -1908,7 +1859,7 @@
     </row>
     <row r="59" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -1923,7 +1874,7 @@
     </row>
     <row r="60" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -1934,7 +1885,7 @@
     </row>
     <row r="61" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -1954,7 +1905,7 @@
     </row>
     <row r="63" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1966,7 +1917,7 @@
     </row>
     <row r="64" spans="1:47" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -1975,7 +1926,7 @@
     </row>
     <row r="65" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -1989,7 +1940,7 @@
     </row>
     <row r="66" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -1998,7 +1949,7 @@
     </row>
     <row r="67" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -2012,7 +1963,7 @@
     </row>
     <row r="68" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -2024,7 +1975,7 @@
     </row>
     <row r="69" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2033,7 +1984,7 @@
     </row>
     <row r="70" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -2041,7 +1992,7 @@
     </row>
     <row r="71" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -2053,7 +2004,7 @@
     </row>
     <row r="72" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2065,7 +2016,7 @@
     </row>
     <row r="73" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -2090,7 +2041,7 @@
     </row>
     <row r="75" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2101,7 +2052,7 @@
     </row>
     <row r="76" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -2112,7 +2063,7 @@
     </row>
     <row r="77" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -2123,7 +2074,7 @@
     </row>
     <row r="78" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -2134,7 +2085,7 @@
     </row>
     <row r="79" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -2148,7 +2099,7 @@
     </row>
     <row r="80" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -2162,7 +2113,7 @@
     </row>
     <row r="81" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -2173,7 +2124,7 @@
     </row>
     <row r="82" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -2184,7 +2135,7 @@
     </row>
     <row r="83" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -2207,7 +2158,7 @@
     </row>
     <row r="85" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B85">
         <v>7</v>
@@ -2218,7 +2169,7 @@
     </row>
     <row r="86" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -2231,7 +2182,7 @@
     </row>
     <row r="87" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -2240,7 +2191,7 @@
     </row>
     <row r="88" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -2249,7 +2200,7 @@
     </row>
     <row r="89" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B89">
         <v>7</v>
@@ -2257,7 +2208,7 @@
     </row>
     <row r="90" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B90" s="1">
         <v>7</v>
@@ -2268,7 +2219,7 @@
     </row>
     <row r="91" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -2279,7 +2230,7 @@
     </row>
     <row r="92" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -2302,7 +2253,7 @@
     </row>
     <row r="94" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -2310,7 +2261,7 @@
     </row>
     <row r="95" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -2321,7 +2272,7 @@
     </row>
     <row r="96" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -2332,7 +2283,7 @@
     </row>
     <row r="97" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -2343,7 +2294,7 @@
     </row>
     <row r="98" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -2351,7 +2302,7 @@
     </row>
     <row r="99" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -2359,7 +2310,7 @@
     </row>
     <row r="100" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -2381,7 +2332,7 @@
     </row>
     <row r="102" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B102">
         <v>9</v>
@@ -2392,7 +2343,7 @@
     </row>
     <row r="103" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B103">
         <v>9</v>
@@ -2400,7 +2351,7 @@
     </row>
     <row r="104" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -2411,7 +2362,7 @@
     </row>
     <row r="105" spans="1:48" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -2422,7 +2373,7 @@
     </row>
     <row r="106" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -2436,7 +2387,7 @@
     </row>
     <row r="107" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -2455,7 +2406,7 @@
     </row>
     <row r="109" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -2463,7 +2414,7 @@
     </row>
     <row r="110" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -2477,7 +2428,7 @@
     </row>
     <row r="111" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -2485,7 +2436,7 @@
     </row>
     <row r="112" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B112">
         <v>11</v>
@@ -2522,7 +2473,7 @@
     </row>
     <row r="114" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B114">
         <v>11</v>
@@ -2533,7 +2484,7 @@
     </row>
     <row r="115" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B115">
         <v>11</v>
@@ -2544,7 +2495,7 @@
     </row>
     <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B116">
         <v>11</v>
@@ -4650,8 +4601,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4673,10 +4624,10 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -4696,10 +4647,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4711,10 +4662,10 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4722,25 +4673,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4748,25 +4699,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4774,25 +4725,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4800,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -4826,25 +4777,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4852,25 +4803,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4878,25 +4829,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4904,25 +4855,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4930,25 +4881,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4956,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -4982,25 +4933,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5008,25 +4959,25 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5034,25 +4985,25 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5060,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -5086,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -5112,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -5138,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -5164,7 +5115,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -5173,16 +5124,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5190,25 +5141,25 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5216,22 +5167,22 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
@@ -5242,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -5268,25 +5219,25 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5294,25 +5245,25 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5320,25 +5271,25 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
         <v>57</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5346,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -5372,25 +5323,25 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5398,22 +5349,22 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
@@ -5424,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
@@ -5450,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
@@ -5476,19 +5427,19 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -5502,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -5528,7 +5479,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -5554,10 +5505,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -5566,13 +5517,13 @@
         <v>35</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5580,22 +5531,22 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="H36" t="s">
         <v>35</v>
@@ -5606,10 +5557,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -5618,13 +5569,13 @@
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5632,7 +5583,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -5658,25 +5609,25 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
         <v>51</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5684,25 +5635,25 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5710,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
@@ -5736,25 +5687,25 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5762,25 +5713,25 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5788,7 +5739,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
@@ -5814,7 +5765,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
@@ -5840,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
@@ -5866,7 +5817,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
@@ -5892,25 +5843,25 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>53</v>
-      </c>
       <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="H48" t="s">
         <v>51</v>
-      </c>
-      <c r="H48" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5918,25 +5869,25 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5944,7 +5895,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -5970,10 +5921,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5982,10 +5933,10 @@
         <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>35</v>
@@ -5996,7 +5947,7 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>41</v>
@@ -6022,7 +5973,7 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>40</v>
@@ -6048,7 +5999,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>40</v>
@@ -6074,16 +6025,16 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>35</v>
@@ -6092,7 +6043,7 @@
         <v>35</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6100,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>40</v>
@@ -6126,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>40</v>
@@ -6152,25 +6103,25 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6178,25 +6129,25 @@
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6204,10 +6155,10 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -6222,7 +6173,7 @@
         <v>35</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6230,7 +6181,7 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>40</v>
@@ -6256,7 +6207,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>40</v>
@@ -6282,7 +6233,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
@@ -6308,7 +6259,7 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>40</v>
@@ -6334,25 +6285,25 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6360,25 +6311,25 @@
         <v>10</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6386,25 +6337,25 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6412,7 +6363,7 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
         <v>40</v>
@@ -6438,7 +6389,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -6447,16 +6398,16 @@
         <v>0</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>35</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6415,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
         <v>41</v>
@@ -6490,7 +6441,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
         <v>40</v>
@@ -6516,7 +6467,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
         <v>41</v>
@@ -6542,25 +6493,25 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="F73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G73" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -6568,25 +6519,25 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -6604,25 +6555,25 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -6630,7 +6581,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -6639,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>35</v>
@@ -6656,10 +6607,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -6668,13 +6619,13 @@
         <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -6682,22 +6633,22 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s">
         <v>35</v>
@@ -6708,25 +6659,25 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -6734,7 +6685,7 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C82" t="s">
         <v>41</v>
@@ -6760,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
         <v>40</v>
@@ -6786,7 +6737,7 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>40</v>
@@ -6812,7 +6763,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>35</v>
@@ -6827,7 +6778,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>35</v>
@@ -6841,25 +6792,25 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6872,1149 +6823,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>